--- a/data/Data2.xlsx
+++ b/data/Data2.xlsx
@@ -827,380 +827,380 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">KMRL Kalaimakal </t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>A/C Seater / Sleeper (2+1)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>22:15</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Madiwala</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>06h 45m</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="0" t="inlineStr">
         <is>
           <t>05:00</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="0" t="inlineStr">
         <is>
           <t>19-Jul</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve"> 819</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="0" t="inlineStr">
         <is>
           <t>Starts from INR 740</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" s="0" t="inlineStr">
         <is>
           <t>8  Single</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr"/>
+      <c r="M6" s="0" t="inlineStr">
         <is>
           <t>Bengaluru</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="0" t="inlineStr">
         <is>
           <t>Chennai</t>
         </is>
       </c>
       <c r="O6" s="1" t="n">
-        <v>45490.51247946254</v>
-      </c>
-      <c r="P6" t="inlineStr">
+        <v>45490.51247946759</v>
+      </c>
+      <c r="P6" s="0" t="inlineStr">
         <is>
           <t>05-11-2024</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">V2K Travels </t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>A/C Sleeper (2+1)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>21:15</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Madiwala</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>07h 15m</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="0" t="inlineStr">
         <is>
           <t>04:30</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="0" t="inlineStr">
         <is>
           <t>19-Jul</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="0" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve"> 193</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="0" t="inlineStr">
         <is>
           <t>Starts from INR 850 808</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="0" t="inlineStr">
         <is>
           <t>3  Single</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr"/>
+      <c r="M7" s="0" t="inlineStr">
         <is>
           <t>Bengaluru</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="0" t="inlineStr">
         <is>
           <t>Chennai</t>
         </is>
       </c>
       <c r="O7" s="1" t="n">
-        <v>45490.51247946401</v>
-      </c>
-      <c r="P7" t="inlineStr">
+        <v>45490.51247946759</v>
+      </c>
+      <c r="P7" s="0" t="inlineStr">
         <is>
           <t>05-11-2024</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">KBS Travels </t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>A/C Sleeper (2+1)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="0" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>Madiwala</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>06h 00m</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="0" t="inlineStr">
         <is>
           <t>03:00</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="0" t="inlineStr">
         <is>
           <t>19-Jul</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve"> 789</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="0" t="inlineStr">
         <is>
           <t>Starts from INR 750</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" s="0" t="inlineStr">
         <is>
           <t>10  Single</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr"/>
+      <c r="M8" s="0" t="inlineStr">
         <is>
           <t>Bengaluru</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="0" t="inlineStr">
         <is>
           <t>Chennai</t>
         </is>
       </c>
       <c r="O8" s="1" t="n">
-        <v>45490.51247946491</v>
-      </c>
-      <c r="P8" t="inlineStr">
+        <v>45490.51247946759</v>
+      </c>
+      <c r="P8" s="0" t="inlineStr">
         <is>
           <t>05-11-2024</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">AdAsian Xpress </t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>Bharat Benz A/C Semi Sleeper (2+2)</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>22:05</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>Madiwala</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>06h 55m</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="0" t="inlineStr">
         <is>
           <t>05:00</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="0" t="inlineStr">
         <is>
           <t>19-Jul</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve"> 78</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="0" t="inlineStr">
         <is>
           <t>INR 650</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" s="0" t="inlineStr">
         <is>
           <t>14  Window</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr"/>
+      <c r="M9" s="0" t="inlineStr">
         <is>
           <t>Bengaluru</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="0" t="inlineStr">
         <is>
           <t>Chennai</t>
         </is>
       </c>
       <c r="O9" s="1" t="n">
-        <v>45490.51247946576</v>
-      </c>
-      <c r="P9" t="inlineStr">
+        <v>45490.51247946759</v>
+      </c>
+      <c r="P9" s="0" t="inlineStr">
         <is>
           <t>05-11-2024</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">V2K Travels </t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>A/C Sleeper (2+1)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="0" t="inlineStr">
         <is>
           <t>21:50</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>Madiwala</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>07h 00m</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="0" t="inlineStr">
         <is>
           <t>04:50</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="0" t="inlineStr">
         <is>
           <t>19-Jul</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve"> 774</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="0" t="inlineStr">
         <is>
           <t>Starts from INR 850 808</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" s="0" t="inlineStr">
         <is>
           <t>2  Single</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr"/>
+      <c r="M10" s="0" t="inlineStr">
         <is>
           <t>Bengaluru</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="0" t="inlineStr">
         <is>
           <t>Chennai</t>
         </is>
       </c>
       <c r="O10" s="1" t="n">
-        <v>45490.5124794666</v>
-      </c>
-      <c r="P10" t="inlineStr">
+        <v>45490.51247946759</v>
+      </c>
+      <c r="P10" s="0" t="inlineStr">
         <is>
           <t>05-11-2024</t>
         </is>
